--- a/Projekat - timetracking.xlsx
+++ b/Projekat - timetracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCH\Documents\MoneyTransferApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5BADB2-FBA1-4D66-9BD3-CF75423E9E21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A72C9AB-1681-4DC5-B3EA-D7E49CF6A2DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Naziv user storija</t>
   </si>
@@ -64,6 +64,36 @@
   </si>
   <si>
     <t>Proucavanje i setupovanje dockera</t>
+  </si>
+  <si>
+    <t>Kreiranje novcanika</t>
+  </si>
+  <si>
+    <t>Aplikativni sloj - Create account metoda</t>
+  </si>
+  <si>
+    <t>Bank service interface</t>
+  </si>
+  <si>
+    <t>Bank service mock</t>
+  </si>
+  <si>
+    <t>Test za kreiranje</t>
+  </si>
+  <si>
+    <t>15min</t>
+  </si>
+  <si>
+    <t>20min</t>
+  </si>
+  <si>
+    <t>45min</t>
+  </si>
+  <si>
+    <t>30min</t>
+  </si>
+  <si>
+    <t>Frontend - Stranica za create account</t>
   </si>
 </sst>
 </file>
@@ -390,15 +420,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="48.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
@@ -458,6 +488,60 @@
         <v>11</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Projekat - timetracking.xlsx
+++ b/Projekat - timetracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCH\Documents\MoneyTransferApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A72C9AB-1681-4DC5-B3EA-D7E49CF6A2DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41835997-33D5-4ADA-8944-7D1F97462C2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Naziv user storija</t>
   </si>
@@ -93,7 +93,22 @@
     <t>30min</t>
   </si>
   <si>
-    <t>Frontend - Stranica za create account</t>
+    <t>1h 10min</t>
+  </si>
+  <si>
+    <t>1h 30min</t>
+  </si>
+  <si>
+    <t>1h 50min</t>
+  </si>
+  <si>
+    <t>Frontend - Stranica za create account *</t>
+  </si>
+  <si>
+    <t>Setup webappa *</t>
+  </si>
+  <si>
+    <t>*rad u losim uslovima</t>
   </si>
 </sst>
 </file>
@@ -420,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,12 +449,12 @@
     <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -450,12 +465,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -466,7 +484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -477,7 +495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -488,12 +506,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -504,12 +533,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -520,7 +555,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -531,7 +566,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>17</v>
       </c>

--- a/Projekat - timetracking.xlsx
+++ b/Projekat - timetracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCH\Documents\MoneyTransferApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41835997-33D5-4ADA-8944-7D1F97462C2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0910234-4C26-44EF-9B88-AFD9A81A5114}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Naziv user storija</t>
   </si>
@@ -109,6 +109,39 @@
   </si>
   <si>
     <t>*rad u losim uslovima</t>
+  </si>
+  <si>
+    <t>Ubacivanje system parametara</t>
+  </si>
+  <si>
+    <t>Konfigurisanje system parametara (inicijalno)</t>
+  </si>
+  <si>
+    <t>Transfer na novcanik sa bankovnog racuna</t>
+  </si>
+  <si>
+    <t>BankService - Withdraw metod</t>
+  </si>
+  <si>
+    <t>AccountService - PayIn</t>
+  </si>
+  <si>
+    <t>Frontend - stranica za uplatu novca na account</t>
+  </si>
+  <si>
+    <t>Test system parametara</t>
+  </si>
+  <si>
+    <t>Test PayIna</t>
+  </si>
+  <si>
+    <t>25min</t>
+  </si>
+  <si>
+    <t>10min</t>
+  </si>
+  <si>
+    <t>5min</t>
   </si>
 </sst>
 </file>
@@ -435,15 +468,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="48.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
@@ -577,6 +610,82 @@
         <v>11</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Projekat - timetracking.xlsx
+++ b/Projekat - timetracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCH\Documents\MoneyTransferApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41835997-33D5-4ADA-8944-7D1F97462C2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBB7E68-5067-4875-88EB-6DE443AD9338}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22050" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>Naziv user storija</t>
   </si>
@@ -109,6 +109,42 @@
   </si>
   <si>
     <t>*rad u losim uslovima</t>
+  </si>
+  <si>
+    <t>Ubacivanje system parametara</t>
+  </si>
+  <si>
+    <t>Konfigurisanje system parametara (inicijalno)</t>
+  </si>
+  <si>
+    <t>Transfer na novcanik sa bankovnog racuna</t>
+  </si>
+  <si>
+    <t>BankService - Withdraw metod</t>
+  </si>
+  <si>
+    <t>AccountService - PayIn</t>
+  </si>
+  <si>
+    <t>Frontend - stranica za uplatu novca na account</t>
+  </si>
+  <si>
+    <t>Test system parametara</t>
+  </si>
+  <si>
+    <t>Test PayIna</t>
+  </si>
+  <si>
+    <t>25min</t>
+  </si>
+  <si>
+    <t>10min</t>
+  </si>
+  <si>
+    <t>5min</t>
+  </si>
+  <si>
+    <t>50min</t>
   </si>
 </sst>
 </file>
@@ -435,15 +471,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="48.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
@@ -577,6 +613,88 @@
         <v>11</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Projekat - timetracking.xlsx
+++ b/Projekat - timetracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCH\Documents\MoneyTransferApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0910234-4C26-44EF-9B88-AFD9A81A5114}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D409FF-A2AC-4E61-B3CA-35529D921B67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t>Naziv user storija</t>
   </si>
@@ -142,6 +142,27 @@
   </si>
   <si>
     <t>5min</t>
+  </si>
+  <si>
+    <t>50min</t>
+  </si>
+  <si>
+    <t>Transfer sa novcanika na bankovni racun</t>
+  </si>
+  <si>
+    <t>BankService - Deposit metod</t>
+  </si>
+  <si>
+    <t>AccountService - PayOut</t>
+  </si>
+  <si>
+    <t>Frontend - stranica za uplatu novca na bankovni racun</t>
+  </si>
+  <si>
+    <t>Test PayOuta</t>
+  </si>
+  <si>
+    <t>BlockedCheck za oba featurea gore</t>
   </si>
 </sst>
 </file>
@@ -468,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +658,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -648,7 +669,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>31</v>
       </c>
@@ -659,7 +680,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>32</v>
       </c>
@@ -670,12 +691,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>35</v>
       </c>
@@ -684,6 +711,66 @@
       </c>
       <c r="D21" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Projekat - timetracking.xlsx
+++ b/Projekat - timetracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCH\Documents\MoneyTransferApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D409FF-A2AC-4E61-B3CA-35529D921B67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30067D99-8D4C-4A3D-ADB7-C6B9F9ACBDE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>Naziv user storija</t>
   </si>
@@ -163,6 +163,18 @@
   </si>
   <si>
     <t>BlockedCheck za oba featurea gore</t>
+  </si>
+  <si>
+    <t>IntraWallet transfer</t>
+  </si>
+  <si>
+    <t>AccountService - Transfer</t>
+  </si>
+  <si>
+    <t>Test transfer</t>
+  </si>
+  <si>
+    <t>Frontend - stranica za transfer</t>
   </si>
 </sst>
 </file>
@@ -489,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,10 +686,10 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -771,6 +783,44 @@
       </c>
       <c r="D27" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Projekat - timetracking.xlsx
+++ b/Projekat - timetracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCH\Documents\MoneyTransferApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30067D99-8D4C-4A3D-ADB7-C6B9F9ACBDE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914BB14A-DB43-4CC3-A818-673768BBCF5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
   <si>
     <t>Naziv user storija</t>
   </si>
@@ -175,6 +175,27 @@
   </si>
   <si>
     <t>Frontend - stranica za transfer</t>
+  </si>
+  <si>
+    <t>Stanje novcanika</t>
+  </si>
+  <si>
+    <t>AccountService - Stanja</t>
+  </si>
+  <si>
+    <t>Frontend - stranica za stanja sa tabelom transakcija</t>
+  </si>
+  <si>
+    <t>55min</t>
+  </si>
+  <si>
+    <t>AccountService -  transakcije</t>
+  </si>
+  <si>
+    <t>Fix account servicea za vracanje transakcija</t>
+  </si>
+  <si>
+    <t>Izmena transakcija u bazi (dodat timestamp)</t>
   </si>
 </sst>
 </file>
@@ -501,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,6 +844,66 @@
         <v>19</v>
       </c>
     </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Projekat - timetracking.xlsx
+++ b/Projekat - timetracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCH\Documents\MoneyTransferApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914BB14A-DB43-4CC3-A818-673768BBCF5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FDECD4-D780-4832-882B-156AA619276A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
   <si>
     <t>Naziv user storija</t>
   </si>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>Izmena transakcija u bazi (dodat timestamp)</t>
+  </si>
+  <si>
+    <t>Promena passworda</t>
+  </si>
+  <si>
+    <t>AccountService - promena</t>
+  </si>
+  <si>
+    <t>Frontend - stranica za promenu</t>
+  </si>
+  <si>
+    <t>Password change test</t>
   </si>
 </sst>
 </file>
@@ -522,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,7 +861,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>51</v>
       </c>
@@ -860,7 +872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>54</v>
       </c>
@@ -871,7 +883,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>52</v>
       </c>
@@ -882,7 +894,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>55</v>
       </c>
@@ -893,7 +905,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>56</v>
       </c>
@@ -901,6 +913,44 @@
         <v>38</v>
       </c>
       <c r="D37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" t="s">
         <v>38</v>
       </c>
     </row>

--- a/Projekat - timetracking.xlsx
+++ b/Projekat - timetracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCH\Documents\MoneyTransferApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FDECD4-D780-4832-882B-156AA619276A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9AD3BF-BA4C-47EF-822A-BDF7C06C8AC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="64">
   <si>
     <t>Naziv user storija</t>
   </si>
@@ -208,6 +208,15 @@
   </si>
   <si>
     <t>Password change test</t>
+  </si>
+  <si>
+    <t>_____</t>
+  </si>
+  <si>
+    <t>____</t>
+  </si>
+  <si>
+    <t>New System parameters + admin</t>
   </si>
 </sst>
 </file>
@@ -534,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,6 +577,9 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
       <c r="F3" t="s">
         <v>27</v>
       </c>
@@ -620,6 +632,9 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -680,6 +695,9 @@
       <c r="A14" t="s">
         <v>30</v>
       </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -762,6 +780,9 @@
       <c r="A22" t="s">
         <v>40</v>
       </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -822,6 +843,9 @@
       <c r="A28" t="s">
         <v>46</v>
       </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
@@ -860,6 +884,9 @@
       <c r="A32" t="s">
         <v>50</v>
       </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
@@ -920,6 +947,9 @@
       <c r="A38" t="s">
         <v>57</v>
       </c>
+      <c r="B38" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
@@ -952,6 +982,22 @@
       </c>
       <c r="D41" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Projekat - timetracking.xlsx
+++ b/Projekat - timetracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCH\Documents\MoneyTransferApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9AD3BF-BA4C-47EF-822A-BDF7C06C8AC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E19073-4136-4832-8C5A-13990BE31E31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="65">
   <si>
     <t>Naziv user storija</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>New System parameters + admin</t>
+  </si>
+  <si>
+    <t>DateTime picker for transactions</t>
   </si>
 </sst>
 </file>
@@ -543,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,6 +1003,17 @@
         <v>18</v>
       </c>
     </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Projekat - timetracking.xlsx
+++ b/Projekat - timetracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCH\Documents\MoneyTransferApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E19073-4136-4832-8C5A-13990BE31E31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B2E5A7-9114-4381-85D1-BA0FB2FB9DF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="72">
   <si>
     <t>Naziv user storija</t>
   </si>
@@ -220,6 +220,27 @@
   </si>
   <si>
     <t>DateTime picker for transactions</t>
+  </si>
+  <si>
+    <t>AdminPanel</t>
+  </si>
+  <si>
+    <t>AdminService - block</t>
+  </si>
+  <si>
+    <t>AdminService - unblock</t>
+  </si>
+  <si>
+    <t>AdminService - checkAdmin</t>
+  </si>
+  <si>
+    <t>SystemParameterService - getall</t>
+  </si>
+  <si>
+    <t>adminservice tests</t>
+  </si>
+  <si>
+    <t>frontend</t>
   </si>
 </sst>
 </file>
@@ -546,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,6 +1035,65 @@
         <v>18</v>
       </c>
     </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Projekat - timetracking.xlsx
+++ b/Projekat - timetracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCH\Documents\MoneyTransferApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B2E5A7-9114-4381-85D1-BA0FB2FB9DF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72997345-BA85-4E39-AB93-581FBACB7342}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="74">
   <si>
     <t>Naziv user storija</t>
   </si>
@@ -240,7 +240,13 @@
     <t>adminservice tests</t>
   </si>
   <si>
-    <t>frontend</t>
+    <t>1h 15min</t>
+  </si>
+  <si>
+    <t>frontend - admin verify, block, unblock</t>
+  </si>
+  <si>
+    <t>frontend - parameter edit</t>
   </si>
 </sst>
 </file>
@@ -567,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,10 +1094,27 @@
       <c r="B50" t="s">
         <v>70</v>
       </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Projekat - timetracking.xlsx
+++ b/Projekat - timetracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCH\Documents\MoneyTransferApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72997345-BA85-4E39-AB93-581FBACB7342}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027B73FB-8A87-4628-81BA-8788EF7AE8B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="76">
   <si>
     <t>Naziv user storija</t>
   </si>
@@ -246,7 +246,13 @@
     <t>frontend - admin verify, block, unblock</t>
   </si>
   <si>
-    <t>frontend - parameter edit</t>
+    <t>frontend - parameter edit **</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2h </t>
+  </si>
+  <si>
+    <t>**nisam mogao ni da pretpostavim pokusao sam da napravim nesto novo</t>
   </si>
 </sst>
 </file>
@@ -575,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,6 +630,9 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -1115,6 +1124,12 @@
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>73</v>
+      </c>
+      <c r="C52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Projekat - timetracking.xlsx
+++ b/Projekat - timetracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCH\Documents\MoneyTransferApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027B73FB-8A87-4628-81BA-8788EF7AE8B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C5AEDE-CF19-4187-B786-C117B67E1DE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24000" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="81">
   <si>
     <t>Naziv user storija</t>
   </si>
@@ -253,6 +253,21 @@
   </si>
   <si>
     <t>**nisam mogao ni da pretpostavim pokusao sam da napravim nesto novo</t>
+  </si>
+  <si>
+    <t>___</t>
+  </si>
+  <si>
+    <t>Bonus logic implementation</t>
+  </si>
+  <si>
+    <t>LastTransaction set fixes</t>
+  </si>
+  <si>
+    <t>Tests rewritten</t>
+  </si>
+  <si>
+    <t>1h 20min</t>
   </si>
 </sst>
 </file>
@@ -579,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,7 +1103,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>69</v>
       </c>
@@ -1099,7 +1114,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>70</v>
       </c>
@@ -1110,7 +1125,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>72</v>
       </c>
@@ -1121,7 +1136,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>73</v>
       </c>
@@ -1130,6 +1145,44 @@
       </c>
       <c r="D52" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
